--- a/data/trans_dic/P1801_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1801_2016_2023-Estudios-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.6565958806677886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6418614904238547</v>
+        <v>0.6418614904238548</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6210741002948691</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5397239990220017</v>
+        <v>0.5380149385751622</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5214886607961242</v>
+        <v>0.5187706037796365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.627131648016405</v>
+        <v>0.6256915916055686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6133323240440516</v>
+        <v>0.6142298302380588</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5998040526193638</v>
+        <v>0.5962496978712115</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5833954058155886</v>
+        <v>0.5836481828287536</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6089145058434637</v>
+        <v>0.6112534229897361</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6002479450616626</v>
+        <v>0.6000726979025003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6877967823557328</v>
+        <v>0.6866011062519846</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6653393280432474</v>
+        <v>0.6667886376743016</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6434483403722954</v>
+        <v>0.6429725884093624</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6293137226055244</v>
+        <v>0.6299079289695633</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.537909046963124</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5120982665249019</v>
+        <v>0.512098266524902</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4856945785674975</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4138254732149965</v>
+        <v>0.4146719741805342</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4187101678481289</v>
+        <v>0.4182291887115595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5128549623872988</v>
+        <v>0.51643142956193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4926856936517273</v>
+        <v>0.4921646656511022</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4704596034218386</v>
+        <v>0.4700239714522478</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4609865057237817</v>
+        <v>0.4612518239201127</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4594324589106777</v>
+        <v>0.4598769691513458</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4668821682373765</v>
+        <v>0.466152603716667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5586191632412426</v>
+        <v>0.5611912552403991</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5318725358810407</v>
+        <v>0.5321021001573625</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5009618991098245</v>
+        <v>0.5009508032934494</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4931137859490972</v>
+        <v>0.4934055118162837</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.4207817612862773</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5346509405734675</v>
+        <v>0.5346509405734674</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5384993937383223</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6036735720440501</v>
+        <v>0.60367357204405</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4797616295054247</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.374837033827579</v>
+        <v>0.3758175339541039</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4901769980742099</v>
+        <v>0.4948111917856699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4968296440720349</v>
+        <v>0.4901884742190069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5700396170359283</v>
+        <v>0.5695244838550881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4474190142492425</v>
+        <v>0.4484245551618865</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5448789713304175</v>
+        <v>0.5438178110298716</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4601464229310642</v>
+        <v>0.4648974795472937</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5763966817311135</v>
+        <v>0.5766832403100478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5795963315752003</v>
+        <v>0.5817432352556429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.637155297781316</v>
+        <v>0.6367911027526371</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5087878588227969</v>
+        <v>0.5115761455586008</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5961049688807775</v>
+        <v>0.5984220196401678</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.5714237358260307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5587587830394047</v>
+        <v>0.5587587830394048</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5190211255499092</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4471464215647045</v>
+        <v>0.44610952170777</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.462887652187413</v>
+        <v>0.4601135850483739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5551624092129092</v>
+        <v>0.5546766794863446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5439318291600161</v>
+        <v>0.5424416152317451</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5059762602918018</v>
+        <v>0.5066140923774159</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5095430125445233</v>
+        <v>0.5074768528821195</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4821083331263306</v>
+        <v>0.4813689677985151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4999514266062963</v>
+        <v>0.4976521458382487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.591402999629835</v>
+        <v>0.5881433637363827</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5741551828031547</v>
+        <v>0.5727292328865246</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.530583644935919</v>
+        <v>0.5312766718811598</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5328009774913868</v>
+        <v>0.53235222849068</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>407139</v>
+        <v>405850</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>301138</v>
+        <v>299569</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>623783</v>
+        <v>622350</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>503487</v>
+        <v>504224</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1049061</v>
+        <v>1042845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>815799</v>
+        <v>816152</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>459333</v>
+        <v>461097</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>346619</v>
+        <v>346517</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>684124</v>
+        <v>682935</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>546180</v>
+        <v>547369</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1125396</v>
+        <v>1124564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>880009</v>
+        <v>880840</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>859261</v>
+        <v>861019</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>933037</v>
+        <v>931966</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1019710</v>
+        <v>1026821</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1067784</v>
+        <v>1066655</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1912270</v>
+        <v>1910499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2026327</v>
+        <v>2027494</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>953959</v>
+        <v>954882</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1040382</v>
+        <v>1038756</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1110702</v>
+        <v>1115817</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1152713</v>
+        <v>1153211</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>2036252</v>
+        <v>2036207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2167547</v>
+        <v>2168830</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>204993</v>
+        <v>205529</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>348804</v>
+        <v>352101</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>272829</v>
+        <v>269182</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>417638</v>
+        <v>417261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>490383</v>
+        <v>491485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>786933</v>
+        <v>785401</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>251648</v>
+        <v>254246</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>410156</v>
+        <v>410360</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>318280</v>
+        <v>319458</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>466811</v>
+        <v>466544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>557645</v>
+        <v>560701</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>860916</v>
+        <v>864262</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1510290</v>
+        <v>1506788</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1628164</v>
+        <v>1618407</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1960889</v>
+        <v>1959173</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2023875</v>
+        <v>2018330</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3496153</v>
+        <v>3500561</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3688190</v>
+        <v>3673235</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1628378</v>
+        <v>1625880</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1758533</v>
+        <v>1750445</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2088895</v>
+        <v>2077381</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2136330</v>
+        <v>2131025</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3666183</v>
+        <v>3670972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3856537</v>
+        <v>3853288</v>
       </c>
     </row>
     <row r="20">
